--- a/tut06/output/2001EE84.xlsx
+++ b/tut06/output/2001EE84.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -603,16 +603,16 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -625,7 +625,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -735,16 +735,16 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -757,7 +757,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
